--- a/stats.xlsx
+++ b/stats.xlsx
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
